--- a/Apigee.xlsx
+++ b/Apigee.xlsx
@@ -11,46 +11,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Z1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Session ID</t>
+  </si>
+  <si>
+    <t>QflowID</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>b7a258211eb14e918f4fc0fbd3f27127</t>
+  </si>
+  <si>
+    <t>22377753</t>
+  </si>
+  <si>
+    <t>1068825478</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>841514f6e70a4fc5aff59d1a00de2051</t>
+  </si>
+  <si>
+    <t>22377754</t>
+  </si>
+  <si>
+    <t>1068825494</t>
+  </si>
+  <si>
+    <t>53c0b951d9fd4e4d8c3f24433bb384d7</t>
+  </si>
+  <si>
+    <t>22377755</t>
+  </si>
+  <si>
+    <t>1068825510</t>
+  </si>
+  <si>
+    <t>a7012c6eb2c8470c8dbe58e10d408d1a</t>
+  </si>
+  <si>
+    <t>22377756</t>
+  </si>
+  <si>
+    <t>1068825536</t>
+  </si>
+  <si>
+    <t>c4578b015e384ababcab8e62a493e9dc</t>
+  </si>
+  <si>
+    <t>22377757</t>
+  </si>
+  <si>
+    <t>1068825569</t>
+  </si>
+  <si>
+    <t>afab9865f47a453fa010f7b93c26be36</t>
+  </si>
+  <si>
+    <t>22377758</t>
+  </si>
+  <si>
+    <t>1068825601</t>
+  </si>
+  <si>
+    <t>d97017d109ba4b41818054a7a4154dd5</t>
+  </si>
+  <si>
+    <t>22377759</t>
+  </si>
+  <si>
+    <t>1068825643</t>
+  </si>
+  <si>
+    <t>3e91e1ec9db841e6a3d866c7e8413a61</t>
+  </si>
+  <si>
+    <t>22377760</t>
+  </si>
+  <si>
+    <t>1068825668</t>
+  </si>
+  <si>
+    <t>3274f4e29d5e41c285706bf2eebf8314</t>
+  </si>
+  <si>
+    <t>22377761</t>
+  </si>
+  <si>
+    <t>1068825684</t>
+  </si>
+  <si>
+    <t>3057142025f34a8ca13b87233c4df275</t>
+  </si>
+  <si>
+    <t>22377762</t>
+  </si>
+  <si>
+    <t>1068825833</t>
+  </si>
+  <si>
+    <t>8495553bdf2a4d6a9a62a5e5c81f33f4</t>
+  </si>
+  <si>
+    <t>22377763</t>
+  </si>
+  <si>
+    <t>1068825908</t>
+  </si>
+  <si>
+    <t>0d305ae35c1345f2aeb818bdd050186d</t>
+  </si>
+  <si>
+    <t>22377764</t>
+  </si>
+  <si>
+    <t>1068825932</t>
+  </si>
+  <si>
+    <t>5a33a8c5b11047578083b0ea6180eb70</t>
+  </si>
+  <si>
+    <t>22377765</t>
+  </si>
+  <si>
+    <t>1068825965</t>
+  </si>
+  <si>
+    <t>6fbd41179a964392abaa877d2572d26b</t>
+  </si>
+  <si>
+    <t>22377767</t>
+  </si>
+  <si>
+    <t>1068825973</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF050000"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -75,9 +189,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,38 +200,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
